--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2172.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2172.xlsx
@@ -354,7 +354,7 @@
         <v>2.553622597734663</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.435086786214128</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2172.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2172.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.312190608905264</v>
+        <v>1.202277660369873</v>
       </c>
       <c r="B1">
-        <v>2.553622597734663</v>
+        <v>2.226264953613281</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.435086786214128</v>
+        <v>1.448760509490967</v>
       </c>
       <c r="E1">
-        <v>0.6721827581843767</v>
+        <v>0.9057269096374512</v>
       </c>
     </row>
   </sheetData>
